--- a/設計/エクセルテスト.xlsx
+++ b/設計/エクセルテスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\GitTestProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\GitTestProject\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BBAF9D-2E6C-4508-9CA4-4F82FADCF41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88D9A35-4F5D-4A31-B6D6-BBCC397C388E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17475" yWindow="8085" windowWidth="13995" windowHeight="13650" activeTab="1" xr2:uid="{DB643CE1-2ED6-458A-9B20-FE3AFFD41083}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>エクセルテスト</t>
     <phoneticPr fontId="1"/>
@@ -48,6 +48,13 @@
   </si>
   <si>
     <t>シート２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差分はどうなる。</t>
+    <rPh sb="0" eb="2">
+      <t>サブン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -438,10 +445,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A774E2-A72C-45BC-B54E-53CEF5F5D798}">
-  <dimension ref="B3"/>
+  <dimension ref="B3:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -451,6 +458,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
